--- a/Code/Results/Cases/Case_3_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_126/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.20146123377509</v>
+        <v>14.9457911076343</v>
       </c>
       <c r="C2">
-        <v>6.710407899289818</v>
+        <v>7.042108293957352</v>
       </c>
       <c r="D2">
-        <v>4.178009557174836</v>
+        <v>5.117105500972632</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>66.09350343337593</v>
+        <v>59.98213184306964</v>
       </c>
       <c r="G2">
-        <v>2.145096656018968</v>
+        <v>3.757619671001033</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.299713925950813</v>
+        <v>11.63543632339049</v>
       </c>
       <c r="K2">
-        <v>11.26813129876161</v>
+        <v>14.57431101503681</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.44246833326118</v>
+        <v>14.8707043493289</v>
       </c>
       <c r="C3">
-        <v>6.18889445515647</v>
+        <v>7.026909815176667</v>
       </c>
       <c r="D3">
-        <v>3.939363908658189</v>
+        <v>5.214335713548422</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>62.88489962511655</v>
+        <v>59.00371066294285</v>
       </c>
       <c r="G3">
-        <v>2.156455893988719</v>
+        <v>3.761344659378631</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.043997719598195</v>
+        <v>11.62642463421277</v>
       </c>
       <c r="K3">
-        <v>10.59500806736227</v>
+        <v>14.55973823136258</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.96959121444031</v>
+        <v>14.83042073032793</v>
       </c>
       <c r="C4">
-        <v>5.855997627410058</v>
+        <v>7.021676718673102</v>
       </c>
       <c r="D4">
-        <v>3.789932385357328</v>
+        <v>5.2771662907481</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>60.87184351445855</v>
+        <v>58.39910632898094</v>
       </c>
       <c r="G4">
-        <v>2.163563909131975</v>
+        <v>3.763747246051339</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.890447813249299</v>
+        <v>11.62333978169333</v>
       </c>
       <c r="K4">
-        <v>10.25447041300657</v>
+        <v>14.55623664646777</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.77536011385551</v>
+        <v>14.81548377862599</v>
       </c>
       <c r="C5">
-        <v>5.717062322796475</v>
+        <v>7.020574481499509</v>
       </c>
       <c r="D5">
-        <v>3.728235037876303</v>
+        <v>5.303559138584248</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.04116199003106</v>
+        <v>58.15197672426101</v>
       </c>
       <c r="G5">
-        <v>2.166497258488012</v>
+        <v>3.764755463218346</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.828771269021577</v>
+        <v>11.62269863076547</v>
       </c>
       <c r="K5">
-        <v>10.11603499145444</v>
+        <v>14.55617975545986</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.74302255421764</v>
+        <v>14.8130932334593</v>
       </c>
       <c r="C6">
-        <v>5.693792009411908</v>
+        <v>7.020453635364565</v>
       </c>
       <c r="D6">
-        <v>3.717939741374963</v>
+        <v>5.307989346383179</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>59.90261959078406</v>
+        <v>58.11090230350372</v>
       </c>
       <c r="G6">
-        <v>2.166986649372126</v>
+        <v>3.764924640576103</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.81858491896501</v>
+        <v>11.62262937124695</v>
       </c>
       <c r="K6">
-        <v>10.09307357334604</v>
+        <v>14.55625304301636</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.96697764273861</v>
+        <v>14.83021327880312</v>
       </c>
       <c r="C7">
-        <v>5.85413727156194</v>
+        <v>7.021657683858233</v>
       </c>
       <c r="D7">
-        <v>3.789103655665544</v>
+        <v>5.277519037658688</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>60.8606818187267</v>
+        <v>58.39577619134761</v>
       </c>
       <c r="G7">
-        <v>2.163603316330238</v>
+        <v>3.763760725065249</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.889612354485702</v>
+        <v>11.62332864084362</v>
       </c>
       <c r="K7">
-        <v>10.25260182482151</v>
+        <v>14.55623033244515</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.94128080640292</v>
+        <v>14.91870336465969</v>
       </c>
       <c r="C8">
-        <v>6.533165943536607</v>
+        <v>7.036017476310848</v>
       </c>
       <c r="D8">
-        <v>4.096280780167403</v>
+        <v>5.149981609129481</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>64.99631844942516</v>
+        <v>59.64570210100948</v>
       </c>
       <c r="G8">
-        <v>2.148987670694204</v>
+        <v>3.758880161034866</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.210838311809223</v>
+        <v>11.63182121715487</v>
       </c>
       <c r="K8">
-        <v>10.9838418312176</v>
+        <v>14.56815673456083</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.03293645277951</v>
+        <v>15.13760231584451</v>
       </c>
       <c r="C9">
-        <v>7.768797219885023</v>
+        <v>7.096626203457991</v>
       </c>
       <c r="D9">
-        <v>4.679313889267651</v>
+        <v>4.924654773459346</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.75389464882794</v>
+        <v>62.05679350415775</v>
       </c>
       <c r="G9">
-        <v>2.121222392864892</v>
+        <v>3.750219869235546</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.867511709662628</v>
+        <v>11.66787479373705</v>
       </c>
       <c r="K9">
-        <v>12.95157317918233</v>
+        <v>14.63466664654344</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.57928279857968</v>
+        <v>15.32482819771344</v>
       </c>
       <c r="C10">
-        <v>8.625897585124411</v>
+        <v>7.160708970772845</v>
       </c>
       <c r="D10">
-        <v>5.101714751958246</v>
+        <v>4.774123439526715</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.23579943481275</v>
+        <v>63.7915158116032</v>
       </c>
       <c r="G10">
-        <v>2.101113221159154</v>
+        <v>3.744404640024859</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.366228621674228</v>
+        <v>11.70613298027159</v>
       </c>
       <c r="K10">
-        <v>14.29732154084209</v>
+        <v>14.70960176586954</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.2617096028081</v>
+        <v>15.41541892274147</v>
       </c>
       <c r="C11">
-        <v>9.00690453883135</v>
+        <v>7.194020232834021</v>
       </c>
       <c r="D11">
-        <v>5.29411758088817</v>
+        <v>4.708888805577238</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.68549157397274</v>
+        <v>64.57023008099688</v>
       </c>
       <c r="G11">
-        <v>2.091960978711719</v>
+        <v>3.741876402614013</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.596950527817622</v>
+        <v>11.72607323059828</v>
       </c>
       <c r="K11">
-        <v>14.89052190330814</v>
+        <v>14.74927497091068</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51736223346299</v>
+        <v>15.4504732934407</v>
       </c>
       <c r="C12">
-        <v>9.150111599291025</v>
+        <v>7.207222521502494</v>
       </c>
       <c r="D12">
-        <v>5.367162141144538</v>
+        <v>4.684651767945548</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.60729046897981</v>
+        <v>64.86341260320037</v>
       </c>
       <c r="G12">
-        <v>2.088488068146982</v>
+        <v>3.740935744396495</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.68492507359173</v>
+        <v>11.73398641392335</v>
       </c>
       <c r="K12">
-        <v>15.11268157222167</v>
+        <v>14.76509241166653</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46242141502276</v>
+        <v>15.44289086097756</v>
       </c>
       <c r="C13">
-        <v>9.119313433359146</v>
+        <v>7.204353197929406</v>
       </c>
       <c r="D13">
-        <v>5.35141979614262</v>
+        <v>4.689850930323032</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.40901462711628</v>
+        <v>64.80034920626512</v>
       </c>
       <c r="G13">
-        <v>2.089236453923637</v>
+        <v>3.741137589698374</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.665950186920631</v>
+        <v>11.73226610122123</v>
       </c>
       <c r="K13">
-        <v>15.0649409686185</v>
+        <v>14.76165068576004</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.28279614612068</v>
+        <v>15.41828802031701</v>
       </c>
       <c r="C14">
-        <v>9.018706454809681</v>
+        <v>7.19509467176223</v>
       </c>
       <c r="D14">
-        <v>5.300122338717678</v>
+        <v>4.706885473980448</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.76144216530153</v>
+        <v>64.5943855693354</v>
       </c>
       <c r="G14">
-        <v>2.091675444417969</v>
+        <v>3.741798679446432</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.604175737524365</v>
+        <v>11.72671700870008</v>
       </c>
       <c r="K14">
-        <v>14.90884705482927</v>
+        <v>14.7505604239696</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.17241838187215</v>
+        <v>15.40331477841708</v>
       </c>
       <c r="C15">
-        <v>8.956948853730371</v>
+        <v>7.189499808322059</v>
       </c>
       <c r="D15">
-        <v>5.268730188722722</v>
+        <v>4.717380290191086</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.36404195246938</v>
+        <v>64.46799972214262</v>
       </c>
       <c r="G15">
-        <v>2.093168255055493</v>
+        <v>3.742205791418444</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.566417849590614</v>
+        <v>11.72336512354254</v>
       </c>
       <c r="K15">
-        <v>14.8129213243278</v>
+        <v>14.74387043583648</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.53428245929764</v>
+        <v>15.31901444647293</v>
       </c>
       <c r="C16">
-        <v>8.600835901998828</v>
+        <v>7.158614877846508</v>
       </c>
       <c r="D16">
-        <v>5.089158118379588</v>
+        <v>4.778451889279878</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.07485698087481</v>
+        <v>63.74039792281049</v>
       </c>
       <c r="G16">
-        <v>2.101710716375362</v>
+        <v>3.744572213672646</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.351231758368588</v>
+        <v>11.70488067319584</v>
       </c>
       <c r="K16">
-        <v>14.25819366014849</v>
+        <v>14.70712067037001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13759153717081</v>
+        <v>15.26866661425623</v>
       </c>
       <c r="C17">
-        <v>8.380231953621378</v>
+        <v>7.140726700792792</v>
       </c>
       <c r="D17">
-        <v>4.979160423284048</v>
+        <v>4.816747530959793</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.6595173510774</v>
+        <v>63.29122307125957</v>
       </c>
       <c r="G17">
-        <v>2.106945749342013</v>
+        <v>3.746053858052887</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.220237857979782</v>
+        <v>11.69418905015283</v>
       </c>
       <c r="K17">
-        <v>13.91319553792927</v>
+        <v>14.68600032073534</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.90742971605109</v>
+        <v>15.24022000426876</v>
       </c>
       <c r="C18">
-        <v>8.252495301651392</v>
+        <v>7.13083013981233</v>
       </c>
       <c r="D18">
-        <v>4.915906079517871</v>
+        <v>4.839079411150955</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.84126365104093</v>
+        <v>63.03190034613392</v>
       </c>
       <c r="G18">
-        <v>2.109956821170197</v>
+        <v>3.746917093247189</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.145251900465908</v>
+        <v>11.68827842430894</v>
       </c>
       <c r="K18">
-        <v>13.71295716168549</v>
+        <v>14.67437875980678</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.82915109111683</v>
+        <v>15.23067731116806</v>
       </c>
       <c r="C19">
-        <v>8.209093896873357</v>
+        <v>7.127546983772069</v>
       </c>
       <c r="D19">
-        <v>4.894487339860165</v>
+        <v>4.84669304387974</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.56348613530291</v>
+        <v>62.94393793812355</v>
       </c>
       <c r="G19">
-        <v>2.110976505004285</v>
+        <v>3.747211268178962</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.11992330588946</v>
+        <v>11.68631829090296</v>
       </c>
       <c r="K19">
-        <v>13.64484266653834</v>
+        <v>14.67053454411712</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.18002481061877</v>
+        <v>15.27397343414903</v>
       </c>
       <c r="C20">
-        <v>8.403802308536374</v>
+        <v>7.142590399926944</v>
       </c>
       <c r="D20">
-        <v>4.990867461812079</v>
+        <v>4.812639307141746</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.8106131919441</v>
+        <v>63.33914029900666</v>
       </c>
       <c r="G20">
-        <v>2.106388513319831</v>
+        <v>3.745894993481142</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.234145009070668</v>
+        <v>11.69530248189117</v>
       </c>
       <c r="K20">
-        <v>13.95010619016222</v>
+        <v>14.68819420829273</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.33562930009104</v>
+        <v>15.42549437268027</v>
       </c>
       <c r="C21">
-        <v>9.048284448416524</v>
+        <v>7.197798254995896</v>
       </c>
       <c r="D21">
-        <v>5.315183296968049</v>
+        <v>4.70186937313715</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.95180365174662</v>
+        <v>64.65492977147547</v>
       </c>
       <c r="G21">
-        <v>2.09095930468375</v>
+        <v>3.741604048212119</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.622303436763694</v>
+        <v>11.72833710227618</v>
       </c>
       <c r="K21">
-        <v>14.95476048253624</v>
+        <v>14.75379643120996</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.07490413387753</v>
+        <v>15.52887648217285</v>
       </c>
       <c r="C22">
-        <v>9.463362778115348</v>
+        <v>7.237301476540549</v>
       </c>
       <c r="D22">
-        <v>5.528312061912183</v>
+        <v>4.632190449894478</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.6246110394827</v>
+        <v>65.5048802349491</v>
       </c>
       <c r="G22">
-        <v>2.080829962492305</v>
+        <v>3.738897132329762</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.879557054359831</v>
+        <v>11.7520371395798</v>
       </c>
       <c r="K22">
-        <v>15.59709666777223</v>
+        <v>14.80129447603833</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.68170511427703</v>
+        <v>15.47331136732478</v>
       </c>
       <c r="C23">
-        <v>9.242311312722967</v>
+        <v>7.215908541369798</v>
       </c>
       <c r="D23">
-        <v>5.414398581464365</v>
+        <v>4.669130990523979</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.20095125717694</v>
+        <v>65.05222433584453</v>
       </c>
       <c r="G23">
-        <v>2.086242756820736</v>
+        <v>3.740332983871739</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.741905808912797</v>
+        <v>11.7391958407812</v>
       </c>
       <c r="K23">
-        <v>15.25547962323089</v>
+        <v>14.77552420228099</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.16084728397383</v>
+        <v>15.27157266426576</v>
       </c>
       <c r="C24">
-        <v>8.393148996034119</v>
+        <v>7.141746613543046</v>
       </c>
       <c r="D24">
-        <v>4.985574768042992</v>
+        <v>4.81449565330013</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.742316987748</v>
+        <v>63.31748028799308</v>
       </c>
       <c r="G24">
-        <v>2.106640434943846</v>
+        <v>3.745966780580478</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.227856579818466</v>
+        <v>11.69479836372369</v>
       </c>
       <c r="K24">
-        <v>13.93342480377354</v>
+        <v>14.68720072885502</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.44339373420026</v>
+        <v>15.07364766915695</v>
       </c>
       <c r="C25">
-        <v>7.444065865896967</v>
+        <v>7.076772256248769</v>
       </c>
       <c r="D25">
-        <v>4.523100048679879</v>
+        <v>4.98296906448281</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>70.69391453398562</v>
+        <v>61.4101067794336</v>
       </c>
       <c r="G25">
-        <v>2.128662287534919</v>
+        <v>3.752466017655133</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.687054737144392</v>
+        <v>11.65604879733925</v>
       </c>
       <c r="K25">
-        <v>12.43762238566917</v>
+        <v>14.6120740185351</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_126/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.9457911076343</v>
+        <v>13.20146123377508</v>
       </c>
       <c r="C2">
-        <v>7.042108293957352</v>
+        <v>6.710407899289702</v>
       </c>
       <c r="D2">
-        <v>5.117105500972632</v>
+        <v>4.178009557174856</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>59.98213184306964</v>
+        <v>66.09350343337623</v>
       </c>
       <c r="G2">
-        <v>3.757619671001033</v>
+        <v>2.145096656018846</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.63543632339049</v>
+        <v>8.299713925950861</v>
       </c>
       <c r="K2">
-        <v>14.57431101503681</v>
+        <v>11.26813129876164</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.8707043493289</v>
+        <v>12.44246833326115</v>
       </c>
       <c r="C3">
-        <v>7.026909815176667</v>
+        <v>6.188894455156398</v>
       </c>
       <c r="D3">
-        <v>5.214335713548422</v>
+        <v>3.939363908658332</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.00371066294285</v>
+        <v>62.88489962511664</v>
       </c>
       <c r="G3">
-        <v>3.761344659378631</v>
+        <v>2.15645589398886</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.62642463421277</v>
+        <v>8.043997719598162</v>
       </c>
       <c r="K3">
-        <v>14.55973823136258</v>
+        <v>10.59500806736222</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.83042073032793</v>
+        <v>11.96959121444032</v>
       </c>
       <c r="C4">
-        <v>7.021676718673102</v>
+        <v>5.855997627410103</v>
       </c>
       <c r="D4">
-        <v>5.2771662907481</v>
+        <v>3.789932385357198</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.39910632898094</v>
+        <v>60.87184351445845</v>
       </c>
       <c r="G4">
-        <v>3.763747246051339</v>
+        <v>2.163563909131837</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.62333978169333</v>
+        <v>7.890447813249275</v>
       </c>
       <c r="K4">
-        <v>14.55623664646777</v>
+        <v>10.25447041300659</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.81548377862599</v>
+        <v>11.77536011385554</v>
       </c>
       <c r="C5">
-        <v>7.020574481499509</v>
+        <v>5.717062322796507</v>
       </c>
       <c r="D5">
-        <v>5.303559138584248</v>
+        <v>3.728235037876135</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>58.15197672426101</v>
+        <v>60.04116199003096</v>
       </c>
       <c r="G5">
-        <v>3.764755463218346</v>
+        <v>2.166497258488271</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.62269863076547</v>
+        <v>7.828771269021583</v>
       </c>
       <c r="K5">
-        <v>14.55617975545986</v>
+        <v>10.11603499145448</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.8130932334593</v>
+        <v>11.74302255421765</v>
       </c>
       <c r="C6">
-        <v>7.020453635364565</v>
+        <v>5.693792009411863</v>
       </c>
       <c r="D6">
-        <v>5.307989346383179</v>
+        <v>3.717939741374882</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>58.11090230350372</v>
+        <v>59.90261959078387</v>
       </c>
       <c r="G6">
-        <v>3.764924640576103</v>
+        <v>2.16698664937187</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.62262937124695</v>
+        <v>7.81858491896504</v>
       </c>
       <c r="K6">
-        <v>14.55625304301636</v>
+        <v>10.09307357334602</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.83021327880312</v>
+        <v>11.96697764273862</v>
       </c>
       <c r="C7">
-        <v>7.021657683858233</v>
+        <v>5.854137271561925</v>
       </c>
       <c r="D7">
-        <v>5.277519037658688</v>
+        <v>3.789103655665481</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>58.39577619134761</v>
+        <v>60.86068181872667</v>
       </c>
       <c r="G7">
-        <v>3.763760725065249</v>
+        <v>2.163603316330238</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.62332864084362</v>
+        <v>7.88961235448563</v>
       </c>
       <c r="K7">
-        <v>14.55623033244515</v>
+        <v>10.25260182482151</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.91870336465969</v>
+        <v>12.94128080640287</v>
       </c>
       <c r="C8">
-        <v>7.036017476310848</v>
+        <v>6.533165943536296</v>
       </c>
       <c r="D8">
-        <v>5.149981609129481</v>
+        <v>4.096280780167591</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>59.64570210100948</v>
+        <v>64.99631844942577</v>
       </c>
       <c r="G8">
-        <v>3.758880161034866</v>
+        <v>2.148987670693546</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.63182121715487</v>
+        <v>8.210838311809251</v>
       </c>
       <c r="K8">
-        <v>14.56815673456083</v>
+        <v>10.98384183121764</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.13760231584451</v>
+        <v>15.03293645277957</v>
       </c>
       <c r="C9">
-        <v>7.096626203457991</v>
+        <v>7.76879721988515</v>
       </c>
       <c r="D9">
-        <v>4.924654773459346</v>
+        <v>4.679313889267599</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>62.05679350415775</v>
+        <v>72.75389464882835</v>
       </c>
       <c r="G9">
-        <v>3.750219869235546</v>
+        <v>2.121222392864761</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.66787479373705</v>
+        <v>8.867511709662596</v>
       </c>
       <c r="K9">
-        <v>14.63466664654344</v>
+        <v>12.95157317918238</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.32482819771344</v>
+        <v>16.57928279857974</v>
       </c>
       <c r="C10">
-        <v>7.160708970772845</v>
+        <v>8.625897585124443</v>
       </c>
       <c r="D10">
-        <v>4.774123439526715</v>
+        <v>5.101714751958269</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>63.7915158116032</v>
+        <v>78.23579943481306</v>
       </c>
       <c r="G10">
-        <v>3.744404640024859</v>
+        <v>2.1011132211593</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.70613298027159</v>
+        <v>9.366228621674219</v>
       </c>
       <c r="K10">
-        <v>14.70960176586954</v>
+        <v>14.29732154084216</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.41541892274147</v>
+        <v>17.26170960280808</v>
       </c>
       <c r="C11">
-        <v>7.194020232834021</v>
+        <v>9.006904538831378</v>
       </c>
       <c r="D11">
-        <v>4.708888805577238</v>
+        <v>5.294117580888074</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>64.57023008099688</v>
+        <v>80.68549157397288</v>
       </c>
       <c r="G11">
-        <v>3.741876402614013</v>
+        <v>2.091960978711824</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.72607323059828</v>
+        <v>9.596950527817615</v>
       </c>
       <c r="K11">
-        <v>14.74927497091068</v>
+        <v>14.89052190330815</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.4504732934407</v>
+        <v>17.51736223346306</v>
       </c>
       <c r="C12">
-        <v>7.207222521502494</v>
+        <v>9.150111599290934</v>
       </c>
       <c r="D12">
-        <v>4.684651767945548</v>
+        <v>5.367162141144518</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>64.86341260320037</v>
+        <v>81.60729046898032</v>
       </c>
       <c r="G12">
-        <v>3.740935744396495</v>
+        <v>2.088488068146999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.73398641392335</v>
+        <v>9.684925073591707</v>
       </c>
       <c r="K12">
-        <v>14.76509241166653</v>
+        <v>15.11268157222175</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.44289086097756</v>
+        <v>17.46242141502269</v>
       </c>
       <c r="C13">
-        <v>7.204353197929406</v>
+        <v>9.119313433359086</v>
       </c>
       <c r="D13">
-        <v>4.689850930323032</v>
+        <v>5.351419796142533</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>64.80034920626512</v>
+        <v>81.40901462711572</v>
       </c>
       <c r="G13">
-        <v>3.741137589698374</v>
+        <v>2.08923645392362</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.73226610122123</v>
+        <v>9.665950186920593</v>
       </c>
       <c r="K13">
-        <v>14.76165068576004</v>
+        <v>15.06494096861844</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.41828802031701</v>
+        <v>17.28279614612072</v>
       </c>
       <c r="C14">
-        <v>7.19509467176223</v>
+        <v>9.018706454809587</v>
       </c>
       <c r="D14">
-        <v>4.706885473980448</v>
+        <v>5.300122338717455</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>64.5943855693354</v>
+        <v>80.76144216530166</v>
       </c>
       <c r="G14">
-        <v>3.741798679446432</v>
+        <v>2.091675444418064</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.72671700870008</v>
+        <v>9.604175737524379</v>
       </c>
       <c r="K14">
-        <v>14.7505604239696</v>
+        <v>14.90884705482933</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.40331477841708</v>
+        <v>17.17241838187224</v>
       </c>
       <c r="C15">
-        <v>7.189499808322059</v>
+        <v>8.956948853730328</v>
       </c>
       <c r="D15">
-        <v>4.717380290191086</v>
+        <v>5.268730188723014</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>64.46799972214262</v>
+        <v>80.36404195246978</v>
       </c>
       <c r="G15">
-        <v>3.742205791418444</v>
+        <v>2.093168255055224</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.72336512354254</v>
+        <v>9.566417849590575</v>
       </c>
       <c r="K15">
-        <v>14.74387043583648</v>
+        <v>14.81292132432785</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.31901444647293</v>
+        <v>16.53428245929777</v>
       </c>
       <c r="C16">
-        <v>7.158614877846508</v>
+        <v>8.600835901998693</v>
       </c>
       <c r="D16">
-        <v>4.778451889279878</v>
+        <v>5.089158118379687</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>63.74039792281049</v>
+        <v>78.07485698087524</v>
       </c>
       <c r="G16">
-        <v>3.744572213672646</v>
+        <v>2.101710716375516</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.70488067319584</v>
+        <v>9.351231758368616</v>
       </c>
       <c r="K16">
-        <v>14.70712067037001</v>
+        <v>14.25819366014859</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.26866661425623</v>
+        <v>16.13759153717088</v>
       </c>
       <c r="C17">
-        <v>7.140726700792792</v>
+        <v>8.380231953621227</v>
       </c>
       <c r="D17">
-        <v>4.816747530959793</v>
+        <v>4.979160423284176</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>63.29122307125957</v>
+        <v>76.65951735107764</v>
       </c>
       <c r="G17">
-        <v>3.746053858052887</v>
+        <v>2.106945749341871</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.69418905015283</v>
+        <v>9.220237857979726</v>
       </c>
       <c r="K17">
-        <v>14.68600032073534</v>
+        <v>13.91319553792926</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.24022000426876</v>
+        <v>15.90742971605105</v>
       </c>
       <c r="C18">
-        <v>7.13083013981233</v>
+        <v>8.252495301651217</v>
       </c>
       <c r="D18">
-        <v>4.839079411150955</v>
+        <v>4.915906079517866</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>63.03190034613392</v>
+        <v>75.84126365104041</v>
       </c>
       <c r="G18">
-        <v>3.746917093247189</v>
+        <v>2.109956821169797</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.68827842430894</v>
+        <v>9.145251900465901</v>
       </c>
       <c r="K18">
-        <v>14.67437875980678</v>
+        <v>13.71295716168538</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.23067731116806</v>
+        <v>15.8291510911169</v>
       </c>
       <c r="C19">
-        <v>7.127546983772069</v>
+        <v>8.209093896873142</v>
       </c>
       <c r="D19">
-        <v>4.84669304387974</v>
+        <v>4.894487339860451</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>62.94393793812355</v>
+        <v>75.56348613530321</v>
       </c>
       <c r="G19">
-        <v>3.747211268178962</v>
+        <v>2.110976505004305</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.68631829090296</v>
+        <v>9.119923305889444</v>
       </c>
       <c r="K19">
-        <v>14.67053454411712</v>
+        <v>13.64484266653834</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.27397343414903</v>
+        <v>16.18002481061874</v>
       </c>
       <c r="C20">
-        <v>7.142590399926944</v>
+        <v>8.403802308536457</v>
       </c>
       <c r="D20">
-        <v>4.812639307141746</v>
+        <v>4.990867461812162</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>63.33914029900666</v>
+        <v>76.81061319194406</v>
       </c>
       <c r="G20">
-        <v>3.745894993481142</v>
+        <v>2.106388513319717</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.69530248189117</v>
+        <v>9.234145009070669</v>
       </c>
       <c r="K20">
-        <v>14.68819420829273</v>
+        <v>13.95010619016225</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.42549437268027</v>
+        <v>17.33562930009108</v>
       </c>
       <c r="C21">
-        <v>7.197798254995896</v>
+        <v>9.048284448416458</v>
       </c>
       <c r="D21">
-        <v>4.70186937313715</v>
+        <v>5.315183296967925</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>64.65492977147547</v>
+        <v>80.95180365174716</v>
       </c>
       <c r="G21">
-        <v>3.741604048212119</v>
+        <v>2.090959304683479</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.72833710227618</v>
+        <v>9.622303436763705</v>
       </c>
       <c r="K21">
-        <v>14.75379643120996</v>
+        <v>14.95476048253629</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.52887648217285</v>
+        <v>18.07490413387747</v>
       </c>
       <c r="C22">
-        <v>7.237301476540549</v>
+        <v>9.463362778115249</v>
       </c>
       <c r="D22">
-        <v>4.632190449894478</v>
+        <v>5.528312061912403</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>65.5048802349491</v>
+        <v>83.62461103948266</v>
       </c>
       <c r="G22">
-        <v>3.738897132329762</v>
+        <v>2.080829962492452</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.7520371395798</v>
+        <v>9.879557054359809</v>
       </c>
       <c r="K22">
-        <v>14.80129447603833</v>
+        <v>15.59709666777214</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.47331136732478</v>
+        <v>17.68170511427706</v>
       </c>
       <c r="C23">
-        <v>7.215908541369798</v>
+        <v>9.242311312722942</v>
       </c>
       <c r="D23">
-        <v>4.669130990523979</v>
+        <v>5.414398581464492</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>65.05222433584453</v>
+        <v>82.20095125717695</v>
       </c>
       <c r="G23">
-        <v>3.740332983871739</v>
+        <v>2.086242756820891</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.7391958407812</v>
+        <v>9.741905808912787</v>
       </c>
       <c r="K23">
-        <v>14.77552420228099</v>
+        <v>15.25547962323092</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.27157266426576</v>
+        <v>16.16084728397377</v>
       </c>
       <c r="C24">
-        <v>7.141746613543046</v>
+        <v>8.393148996034025</v>
       </c>
       <c r="D24">
-        <v>4.81449565330013</v>
+        <v>4.985574768043067</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>63.31748028799308</v>
+        <v>76.7423169877481</v>
       </c>
       <c r="G24">
-        <v>3.745966780580478</v>
+        <v>2.106640434943719</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.69479836372369</v>
+        <v>9.227856579818463</v>
       </c>
       <c r="K24">
-        <v>14.68720072885502</v>
+        <v>13.93342480377351</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.07364766915695</v>
+        <v>14.44339373420032</v>
       </c>
       <c r="C25">
-        <v>7.076772256248769</v>
+        <v>7.444065865896772</v>
       </c>
       <c r="D25">
-        <v>4.98296906448281</v>
+        <v>4.523100048680067</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>61.4101067794336</v>
+        <v>70.69391453398525</v>
       </c>
       <c r="G25">
-        <v>3.752466017655133</v>
+        <v>2.128662287534792</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.65604879733925</v>
+        <v>8.687054737144388</v>
       </c>
       <c r="K25">
-        <v>14.6120740185351</v>
+        <v>12.43762238566917</v>
       </c>
       <c r="L25">
         <v>0</v>
